--- a/2018/Budget of Materials 2018.xlsx
+++ b/2018/Budget of Materials 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2018 CNC Lathe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P301319\Documents\GitHub\CNC-Lathe-Docs\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>item</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>https://www.ruland.com/MJSC33-14-A-JD21-33-98R-MJSC33-8-A.html</t>
+  </si>
+  <si>
+    <t>Nuts and Bolts</t>
+  </si>
+  <si>
+    <t>Polycarb Sheet</t>
   </si>
 </sst>
 </file>
@@ -535,9 +541,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,11 +647,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -658,21 +656,27 @@
     <xf numFmtId="6" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -964,14 +968,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="37" style="21" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="21" customWidth="1"/>
     <col min="3" max="3" width="6" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
@@ -979,7 +983,7 @@
     <col min="7" max="7" width="8.140625" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" style="25" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="81.85546875" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -1016,296 +1020,296 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="43">
         <v>2</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="44">
         <v>289</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="44">
         <f>E2*D2</f>
         <v>578</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="44">
         <f>F2*0.1</f>
         <v>57.800000000000004</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="73">
+      <c r="I2" s="71">
         <v>62.01</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="43">
         <v>2</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="44">
         <v>229.95</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="44">
         <f t="shared" ref="F3:F10" si="0">E3*D3</f>
         <v>459.9</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="44">
         <f t="shared" ref="G3:G10" si="1">F3*0.1</f>
         <v>45.99</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="72"/>
+      <c r="J3" s="35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="38">
         <v>2</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="39">
         <v>21</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="39">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="39">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="36" t="s">
+      <c r="I4" s="72"/>
+      <c r="J4" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="47">
         <v>2</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <v>21</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="39">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="72"/>
+      <c r="J5" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="46">
         <v>1</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>1229</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <f t="shared" si="0"/>
         <v>1229</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="44">
         <f t="shared" si="1"/>
         <v>122.9</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="36" t="s">
+      <c r="I6" s="72"/>
+      <c r="J6" s="35" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="46">
         <v>1</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <v>488</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <f t="shared" si="0"/>
         <v>488</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <f t="shared" si="1"/>
         <v>48.800000000000004</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="36" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="35" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="43">
         <v>1</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>74</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <f t="shared" si="1"/>
         <v>7.4</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="36" t="s">
+      <c r="I8" s="73"/>
+      <c r="J8" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="50">
         <v>1</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="51">
         <v>143.5</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="51">
         <f t="shared" si="0"/>
         <v>143.5</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="51">
         <f t="shared" si="1"/>
         <v>14.350000000000001</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="30">
         <v>0</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="50">
         <v>1</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="51">
         <v>143.5</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="51">
         <f t="shared" si="0"/>
         <v>143.5</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="51">
         <f t="shared" si="1"/>
         <v>14.350000000000001</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="30">
         <v>0</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="35" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1331,159 +1335,159 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="50">
         <v>1</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="34"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="33"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="35"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="43">
         <v>1</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="45">
+      <c r="E14" s="54"/>
+      <c r="F14" s="44">
         <f t="shared" ref="F14:F19" si="2">(D14*E14)+G14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="46" t="s">
+      <c r="G14" s="54"/>
+      <c r="H14" s="45" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="43">
         <v>1</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="45">
+      <c r="E15" s="54"/>
+      <c r="F15" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="46" t="s">
+      <c r="G15" s="54"/>
+      <c r="H15" s="45" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="43">
         <v>1</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="45">
+      <c r="E16" s="54"/>
+      <c r="F16" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="54"/>
+      <c r="H16" s="45" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="43">
         <v>1</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="45">
+      <c r="E17" s="54"/>
+      <c r="F17" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="46" t="s">
+      <c r="G17" s="54"/>
+      <c r="H17" s="45" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="43">
         <v>1</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="54">
         <v>319</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="44">
         <f t="shared" si="2"/>
         <v>319</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="46" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="45" t="s">
         <v>39</v>
       </c>
       <c r="I18" s="8">
@@ -1494,27 +1498,27 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="43">
         <v>3</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="57">
         <v>192.5</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="44">
         <f t="shared" si="2"/>
         <v>577.5</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="46" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="45" t="s">
         <v>39</v>
       </c>
       <c r="I19" s="8">
@@ -1523,38 +1527,38 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="8"/>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="46"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="8"/>
       <c r="J21" s="7"/>
     </row>
@@ -1573,57 +1577,57 @@
       <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="43">
         <v>1</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="54">
         <v>100</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="44">
         <f t="shared" ref="F23:F31" si="3">(D23*E23)+G23</f>
         <v>100</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="46" t="s">
+      <c r="G23" s="54"/>
+      <c r="H23" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="50">
         <v>1</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="60">
         <v>799</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="51">
         <f t="shared" si="3"/>
         <v>878.9</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24" s="60">
         <f>0.1*E24</f>
         <v>79.900000000000006</v>
       </c>
-      <c r="H24" s="53" t="s">
+      <c r="H24" s="52" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="8">
@@ -1635,190 +1639,190 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="38">
         <v>4</v>
       </c>
-      <c r="E25" s="63">
+      <c r="E25" s="62">
         <v>27.91</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="39">
         <f t="shared" si="3"/>
         <v>111.64</v>
       </c>
-      <c r="G25" s="65"/>
-      <c r="H25" s="41" t="s">
+      <c r="G25" s="64"/>
+      <c r="H25" s="40" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="8">
         <v>0</v>
       </c>
-      <c r="J25" s="66" t="s">
+      <c r="J25" s="65" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="38">
         <v>2</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="62">
         <v>27.95</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="39">
         <f>(D26*E26)</f>
         <v>55.9</v>
       </c>
-      <c r="G26" s="65"/>
-      <c r="H26" s="41" t="s">
+      <c r="G26" s="64"/>
+      <c r="H26" s="40" t="s">
         <v>30</v>
       </c>
       <c r="I26" s="8">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="77" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="38">
         <v>1</v>
       </c>
-      <c r="E27" s="63">
+      <c r="E27" s="62">
         <v>18.98</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="39">
         <f t="shared" si="3"/>
         <v>20.878</v>
       </c>
-      <c r="G27" s="65">
+      <c r="G27" s="64">
         <f>E27*0.1*D27</f>
         <v>1.8980000000000001</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="40" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="J27" s="67" t="s">
+      <c r="J27" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="39" t="s">
+      <c r="B28" s="61"/>
+      <c r="C28" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="38">
         <v>1</v>
       </c>
-      <c r="E28" s="63">
+      <c r="E28" s="62">
         <v>7.26</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="39">
         <f t="shared" si="3"/>
         <v>7.9859999999999998</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="63">
         <f>E28*0.1</f>
         <v>0.72599999999999998</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="40" t="s">
         <v>30</v>
       </c>
       <c r="I28" s="8">
         <v>0</v>
       </c>
-      <c r="J28" s="66" t="s">
+      <c r="J28" s="65" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="38">
         <v>4</v>
       </c>
-      <c r="E29" s="63">
+      <c r="E29" s="62">
         <v>18.68</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="39">
         <f t="shared" si="3"/>
         <v>76.587999999999994</v>
       </c>
-      <c r="G29" s="65">
+      <c r="G29" s="64">
         <f>E29*0.1</f>
         <v>1.8680000000000001</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="40" t="s">
         <v>30</v>
       </c>
       <c r="I29" s="8">
         <v>0</v>
       </c>
-      <c r="J29" s="66" t="s">
+      <c r="J29" s="65" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="44" t="s">
+      <c r="B30" s="59"/>
+      <c r="C30" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="44">
+      <c r="D30" s="43">
         <v>1</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="67">
         <v>1694.36</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="44">
         <f t="shared" si="3"/>
         <v>1863.7959999999998</v>
       </c>
-      <c r="G30" s="72">
+      <c r="G30" s="68">
         <f>0.1*E30</f>
         <v>169.43600000000001</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="H30" s="45" t="s">
         <v>43</v>
       </c>
       <c r="I30" s="19">
@@ -1828,26 +1832,26 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39">
+      <c r="B31" s="61"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38">
         <v>2</v>
       </c>
-      <c r="E31" s="63">
+      <c r="E31" s="62">
         <v>30</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="39">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="G31" s="64">
+      <c r="G31" s="63">
         <f>3*2</f>
         <v>6</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="40" t="s">
         <v>43</v>
       </c>
       <c r="I31" s="19">
@@ -1856,67 +1860,83 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="69">
+      <c r="A32" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="74">
         <f>SUM(F2:F31)</f>
         <v>10190.987999999999</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="I32" s="68">
+      <c r="G34" s="24"/>
+      <c r="I34" s="75">
         <f>SUM(I2:I31)</f>
         <v>352.57400000000018</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="25"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="26"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="77" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="25"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="26"/>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="52">
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="51">
         <f>F23+F24+F10+F9+F20+F12</f>
         <v>1265.9000000000001</v>
       </c>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="40">
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="39">
         <f>SUM(F23:F29)+F20+F12+F10+F9+F5+F4+F31</f>
         <v>1688.8920000000001</v>
       </c>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E36" s="23"/>
-      <c r="F36" s="26"/>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E37" s="23"/>
-      <c r="F37" s="28"/>
       <c r="I37" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="I2:I8"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B34:E34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J24" r:id="rId1"/>
